--- a/GESTION DE CARGO DEL SISTEMA.xlsx
+++ b/GESTION DE CARGO DEL SISTEMA.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="53">
   <si>
     <t>MODULO</t>
   </si>
@@ -158,10 +158,31 @@
     <t>listo</t>
   </si>
   <si>
-    <t>xavier, jugney</t>
-  </si>
-  <si>
     <t>luis</t>
+  </si>
+  <si>
+    <t>GESTION DE EMPLEADO</t>
+  </si>
+  <si>
+    <t>TIPO DE SERVICIO</t>
+  </si>
+  <si>
+    <t>GESTION DE TIPO DE SERVICIO</t>
+  </si>
+  <si>
+    <t>PAGO DE NOMINA</t>
+  </si>
+  <si>
+    <t>GESTION DE ESTACIONAMIENTO</t>
+  </si>
+  <si>
+    <t>PAGO DE SERVICIO</t>
+  </si>
+  <si>
+    <t>REALIZACION DE AVISOS</t>
+  </si>
+  <si>
+    <t>EMPLEADOS</t>
   </si>
 </sst>
 </file>
@@ -259,7 +280,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -287,11 +308,24 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -577,10 +611,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:L44"/>
+  <dimension ref="B3:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,29 +625,30 @@
     <col min="6" max="6" width="25.42578125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="30.140625" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="F3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="J3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-    </row>
-    <row r="4" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>19</v>
       </c>
@@ -642,7 +677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
@@ -652,8 +687,8 @@
       <c r="D5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>3</v>
+      <c r="F5" s="15" t="s">
+        <v>48</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>41</v>
@@ -671,14 +706,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
+      <c r="F6" s="16" t="s">
+        <v>49</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
@@ -690,18 +725,18 @@
         <v>17</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="7" t="s">
-        <v>5</v>
+    <row r="7" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>36</v>
@@ -710,13 +745,13 @@
         <v>15</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F8" s="7" t="s">
         <v>9</v>
       </c>
@@ -736,7 +771,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
@@ -750,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
@@ -776,7 +811,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F11" s="7" t="s">
         <v>24</v>
       </c>
@@ -790,13 +825,20 @@
         <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="2"/>
       <c r="J12" s="7" t="s">
         <v>23</v>
       </c>
@@ -807,73 +849,100 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C14" s="11" t="s">
+    <row r="13" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+    </row>
+    <row r="14" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+    </row>
+    <row r="15" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+    </row>
+    <row r="16" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D16" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="11"/>
-      <c r="D15" s="6" t="s">
+      <c r="H16" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="12"/>
+      <c r="D17" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="2:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="11"/>
-      <c r="D16" s="6" t="s">
+      <c r="H17" s="12"/>
+      <c r="I17" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="12"/>
+      <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="18" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="11" t="s">
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="20" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="11"/>
-      <c r="D19" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="11"/>
-      <c r="D20" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>28</v>
@@ -881,13 +950,37 @@
       <c r="F20" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="11" t="s">
-        <v>5</v>
-      </c>
+      <c r="H20" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="12"/>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H21" s="12"/>
+      <c r="I21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="12"/>
       <c r="D22" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>28</v>
@@ -895,23 +988,19 @@
       <c r="F22" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="23" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="11"/>
-      <c r="D23" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="24" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D24" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>28</v>
@@ -920,150 +1009,176 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="11" t="s">
+    <row r="25" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="12"/>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="12"/>
+      <c r="D26" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="11"/>
-      <c r="D27" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="11"/>
-      <c r="D28" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="30" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="11" t="s">
+    <row r="29" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="12"/>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="12"/>
+      <c r="D30" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+    </row>
+    <row r="32" spans="3:11" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F30" s="3" t="s">
+      <c r="E32" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="11"/>
-      <c r="D31" s="6" t="s">
+    <row r="33" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="12"/>
+      <c r="D33" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="11"/>
-      <c r="D32" s="6" t="s">
+    <row r="34" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="12"/>
+      <c r="D34" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="34" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="6"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="11"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-    </row>
     <row r="36" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="11"/>
+      <c r="C36" s="12" t="s">
+        <v>11</v>
+      </c>
       <c r="D36" s="6"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
+    <row r="37" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="12"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+    </row>
     <row r="38" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="11" t="s">
+      <c r="C38" s="12"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+    </row>
+    <row r="40" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="3" t="s">
+      <c r="E40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="39" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="11"/>
-      <c r="D39" s="6" t="s">
+    <row r="41" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="12"/>
+      <c r="D41" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F39" s="3" t="s">
+      <c r="E41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="11"/>
-      <c r="D40" s="6" t="s">
+    <row r="42" spans="3:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="12"/>
+      <c r="D42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
+      <c r="E42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="3"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
         <v>34</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F45" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="10" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C46" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F44" s="10" t="s">
+      <c r="F46" s="10" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C32:C34"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="C40:C42"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="J3:L3"/>
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C18:C20"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C38:C40"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="H20:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
